--- a/medicine/Enfance/Sylvie_Rouch/Sylvie_Rouch.xlsx
+++ b/medicine/Enfance/Sylvie_Rouch/Sylvie_Rouch.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sylvie Rouch, née le 4 octobre 1953 à Bois-Colombes, est une romancière, scénariste et parolière française. Elle est l'auteure de plusieurs romans policiers et ouvrages de littérature d'enfance et de jeunesse.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Professeur d'anglais de 1977 à 1992, elle a travaillé à partir de 1994 comme documentaliste. Elle a, à ce jour, publié de nombreuses nouvelles, plusieurs romans dont Corps-morts, lauréat en 2007 du Prix Polar dans la Ville à Saint-Quentin-en-Yvelines, des livres documentaires sur le patrimoine maritime, et des albums jeunesse. Elle fut l'une des chevilles ouvrières du festival "Les Visiteurs du Noir" de Granville. Elle a par ailleurs animé à Rennes des ateliers d'écriture en milieu carcéral et des cafés polar avec l'association Noir de Zinc. En 2008, elle crée avec José-Louis Bocquet, Gérard Alle et Denis Flageul une collection de romans ayant pour héros Léo Tanguy (22 titres publiés aux éditions Coop Breizh, puis La Gidouille, de 2008 à 2017). Elle a signé en 2020 son premier scénario pour la série de France TV, Meurtres à..., qui se déroule dans le Cotentin : Meurtres en Cotentin[1]. Sylvie Rouch est mariée au peintre Kim Rouch. Elle partage sa vie entre Bréhal et Saint-Malo[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Professeur d'anglais de 1977 à 1992, elle a travaillé à partir de 1994 comme documentaliste. Elle a, à ce jour, publié de nombreuses nouvelles, plusieurs romans dont Corps-morts, lauréat en 2007 du Prix Polar dans la Ville à Saint-Quentin-en-Yvelines, des livres documentaires sur le patrimoine maritime, et des albums jeunesse. Elle fut l'une des chevilles ouvrières du festival "Les Visiteurs du Noir" de Granville. Elle a par ailleurs animé à Rennes des ateliers d'écriture en milieu carcéral et des cafés polar avec l'association Noir de Zinc. En 2008, elle crée avec José-Louis Bocquet, Gérard Alle et Denis Flageul une collection de romans ayant pour héros Léo Tanguy (22 titres publiés aux éditions Coop Breizh, puis La Gidouille, de 2008 à 2017). Elle a signé en 2020 son premier scénario pour la série de France TV, Meurtres à..., qui se déroule dans le Cotentin : Meurtres en Cotentin. Sylvie Rouch est mariée au peintre Kim Rouch. Elle partage sa vie entre Bréhal et Saint-Malo.
 </t>
         </is>
       </c>
@@ -544,25 +558,166 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Zoé s'en va-t-au ciel. Paris : Baleine, coll. "Canaille-Revolver" n° 62, 1997, 153 p.  (ISBN 2-84219-061-0)
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Zoé s'en va-t-au ciel. Paris : Baleine, coll. "Canaille-Revolver" n° 62, 1997, 153 p.  (ISBN 2-84219-061-0)
 Meufs mimosas. Paris : Baleine, coll. "Le Poulpe" 120, 1998, 122 p.  (ISBN 2-84219-138-2)
 Corps-morts. Paris : Après la lune, coll. "Lunes blafardes" n° 1, 2006, 236 p.  (ISBN 2-35227-004-9)
 L'Immobilier flambe, le SDF brûle ! Spézet : Coop Breizh, coll. "Les Enquêtes de Léo Tanguy" n° 2, 2008, 165 p.  (ISBN 978-2-84346-361-7). Rééd. sous le titre Les Enquêtes de Léo Tanguy. Ploeuc-L'Hermitage : La Gidouille, coll. "Les archives" n° 1, 11/2018, 540 p.  (ISBN 979-10-92842-41-8)
 Décembre blanc. Saint-Malo : Pascal Galodé, coll. "Univers roman : grands romans", 2010, 218 p.  (ISBN 978-235593-094-2)
 De l'eau dans l'gaz. Ploeuc-L'Hermitage : La Gidouille, coll. "Les Nouvelles Enquêtes de Léo Tanguy" n° 21, juin 2017, 133 p.  (ISBN 979-10-92842-26-5)
 Arrête ton char : Granville, en collaboration avec Brigitte Sesboüé. Bayeux : OREP, coll. "Les enquêtes de Martin Mesnil", 02/2019, 140 p.  (ISBN 978-2-8151-0461-6)
-L'Affaire Sanchez, Éditions des Baleines, 2023
-Recueil de nouvelles
-Le Canard à trois pattes : et autres nouvelles. Charlieu : la Bartavelle éd., 1993, 212 p.  (ISBN 2-87744-139-3)
-Chroniques
-105 jours en solitaire : livre de bord &amp; chroniques à terre / Christophe Auguin, [Sylvie Rouch]. Paris : Denoël, 1997, 187 p.  (ISBN 2-207-24605-1)
-Documentaires
-Îles Anglo-Normandes. Paris : les Éd. Mondéos, 2006, 72 p. (Guides Mondéos).  (ISBN 2-84754-130-6)
+L'Affaire Sanchez, Éditions des Baleines, 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Sylvie_Rouch</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sylvie_Rouch</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Recueil de nouvelles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le Canard à trois pattes : et autres nouvelles. Charlieu : la Bartavelle éd., 1993, 212 p.  (ISBN 2-87744-139-3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Sylvie_Rouch</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sylvie_Rouch</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Chroniques</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>105 jours en solitaire : livre de bord &amp; chroniques à terre / Christophe Auguin, [Sylvie Rouch]. Paris : Denoël, 1997, 187 p.  (ISBN 2-207-24605-1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Sylvie_Rouch</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sylvie_Rouch</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Documentaires</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Îles Anglo-Normandes. Paris : les Éd. Mondéos, 2006, 72 p. (Guides Mondéos).  (ISBN 2-84754-130-6)
 L'Homme du fleuve Niger / ill. Kim Rouch. Rennes : les Éd. du Carabe, 2000, 59 p.  (ISBN 2-913515-03-7)
-Dunes et havres / ill. Kim Rouch ; préface Nicolas Hulot. Rouen : Éd. des Falaises, coll. "Peintures et aquarelles", 2008, 95 p.  (ISBN 978-2-84811-077-6)
-Nouvelles
-Langue de bois, dans La Maison du bourreau : nouvelles. Lamballe-Saint-Brieuc-Nantes : coéd. La Fureur du Noir, La Nouvelle Librairie &amp; Éd. Sept, 11/1998, p. 47-51.  (ISBN 2-912688-04-3). NB : recueil publié à l’occasion du festival « Noir sur la ville, 1998 » de Lamballe.
+Dunes et havres / ill. Kim Rouch ; préface Nicolas Hulot. Rouen : Éd. des Falaises, coll. "Peintures et aquarelles", 2008, 95 p.  (ISBN 978-2-84811-077-6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Sylvie_Rouch</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sylvie_Rouch</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Langue de bois, dans La Maison du bourreau : nouvelles. Lamballe-Saint-Brieuc-Nantes : coéd. La Fureur du Noir, La Nouvelle Librairie &amp; Éd. Sept, 11/1998, p. 47-51.  (ISBN 2-912688-04-3). NB : recueil publié à l’occasion du festival « Noir sur la ville, 1998 » de Lamballe.
 Une poisse de bâtard. Saint-Jean-de-Braye : Horizons Noirs, revue Ligne noire n° 10, 04/2000, p. 85-90, ill. de François Souvay.
 Des goûts et des couleurs, dans Cinq : recueil de nouvelles du 2e concours la Noiraude-la Fureur du noir / sous la direction de Frédéric Prilleux. Paris : Baleine, 2001.  (ISBN 2-842-19341-5)
 Un orage à Bobo Dioulasso, Ligne noire Spécial concours 2003, Association Horizons noirs (Orléans), p. 163-172.
@@ -576,27 +731,163 @@
 Bus 47 (Kremlin Bicêtre–Les Halles–Gare de l'Est), dans La Souris déglinguée : 30 nouvelles lysergiques / sous la dir. de Jean-Noël Levavasseur. Rosières-en-Haye : Camion Blanc, 11/2011, p. 273-283.  (ISBN 978-2-35779-161-9)
 If music could talk, dans Sandinista ! : Hommage à The Clash : 12 nouvelles 12 auteurs Rock et Polar (vol. 2) / sous la direction de Jean-Noël Levavasseur ; illustrations Jean-Christophe Chauzy. Rennes : Goater, coll. "Goater noir" n° 20, 11/2017.  (ISBN 978-2-918647-98-0). Vendu aussi en coffret 3 vol. Sandinista ! : Hommage à The Clash : 36 nouvelles 36 auteurs Rock et Polar  (ISBN 978-2-918647-16-4)
 L'Herbe des morts, dans Sous les pavés la rage. Tarbes : Arcanes 17, coll. "Polar rouge", 06/2018, p. 233-244.  (ISBN 978-2-918721-71-0)
-Too Young to love me, dans Little Bob Stories : histoires pour Roberto. Rennes : Goater, coll. « Goater Noir poche », 03/2021, p. 109-122.  (ISBN 979-1-097465-42-1)
-Ouvrages pour la jeunesse
-Le Roi qui voulait voler ou la Fabuleuse Histoire des fous de Bassan / ill. Cécile Gambini. Orange : Grandir, 1999, [19] p.  (ISBN 2-84166-115-6)
-L'Amie pour la vie d'Ava / ill. Véronique Vernette. Paris : Autrement, 2001, [25] p. (Autrement jeunesse).  (ISBN 2-7467-0081-6)
-Loup Tambour et Lulu Majorette / ill. Olivier Tallec. Paris : Autrement, 2003, [25] p. (Autrement jeunesse).  (ISBN 2-7467-0388-2). Rééd. Paris : Éd. les Incorruptibles, 2004, [24] p.  (ISBN 2-7511-0049-X)
+Too Young to love me, dans Little Bob Stories : histoires pour Roberto. Rennes : Goater, coll. « Goater Noir poche », 03/2021, p. 109-122.  (ISBN 979-1-097465-42-1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Sylvie_Rouch</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sylvie_Rouch</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Ouvrages pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Le Roi qui voulait voler ou la Fabuleuse Histoire des fous de Bassan / ill. Cécile Gambini. Orange : Grandir, 1999,  p.  (ISBN 2-84166-115-6)
+L'Amie pour la vie d'Ava / ill. Véronique Vernette. Paris : Autrement, 2001,  p. (Autrement jeunesse).  (ISBN 2-7467-0081-6)
+Loup Tambour et Lulu Majorette / ill. Olivier Tallec. Paris : Autrement, 2003,  p. (Autrement jeunesse).  (ISBN 2-7467-0388-2). Rééd. Paris : Éd. les Incorruptibles, 2004,  p.  (ISBN 2-7511-0049-X)
 The Captain is missing ! / avec Caroline Chapon ; ill. Bruno David.
 Paris : Nathan, coll. "L'Énigme des vacances" n° 25, 04/2008, 80 p.  (ISBN 978-2-09-186662-8)
-Paris : Nathan, coll. "L'Énigme des vacances" n° 21, 05/2012, 94 p.  (ISBN 978-2-09-186876-9)[3]
+Paris : Nathan, coll. "L'Énigme des vacances" n° 21, 05/2012, 94 p.  (ISBN 978-2-09-186876-9)
 Paris : Nathan, coll. "L'Énigme des vacances" n° 21, 03/2013, 95 p.  (ISBN 978-2-09-187964-2)
 Paris : Nathan, coll. "L'Énigme des vacances" n° 21, 04/2016, 95 p.  (ISBN 978-2-09-193083-1)
 Paris : Nathan, coll. "L'Énigme des vacances" n° 21, 04/2017, 48 p.  (ISBN 978-2-09-193162-3)
 Mon pingouin de Patagonie, ill. Mélanie Allag. Paris : l'Élan vert, 2012, 18 p.  (ISBN 978-2-84455-234-1)
-Accroche-toi Jeannot ! ou les Tribulations du petit garçon qui voulait aller à la tour Eiffel / ill. Masumi Furukawa. Paris : Parigramme, 2013.  (ISBN 978-2-84096-791-0)
-Traduction
-10 petits cochons / Arthur Geisert ; [traduit par Sylvie Rouch]. Paris : Éd. Autrement, 2006, [29] p. (Autrement jeunesse). Trad. de : Pigs from 1 to 10.  (ISBN 2-7467-0881-7)
-Chansons
-Sylvie Rouch a écrit les chansons suivantes :
+Accroche-toi Jeannot ! ou les Tribulations du petit garçon qui voulait aller à la tour Eiffel / ill. Masumi Furukawa. Paris : Parigramme, 2013.  (ISBN 978-2-84096-791-0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Sylvie_Rouch</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sylvie_Rouch</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Traduction</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>10 petits cochons / Arthur Geisert ; [traduit par Sylvie Rouch]. Paris : Éd. Autrement, 2006,  p. (Autrement jeunesse). Trad. de : Pigs from 1 to 10.  (ISBN 2-7467-0881-7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Sylvie_Rouch</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sylvie_Rouch</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Chansons</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Sylvie Rouch a écrit les chansons suivantes :
 Détournement de voyageurs Gare du Nord sur le troisième album de Casse-Pipe, La Part des Anges, en 1998.
-Létales morsures sur le quatrième album de Casse-Pipe, Litanies de mon triste cœur, en 2000.
-Téléfilm
-Meurtres en Cotentin, réalisation Jérémy Minui, avec Chloé Lambert et Léa François. Diffusion : 1er février 2020, sur France 3. Rediffusion le 28 mai 2022, sur France 3.</t>
+Létales morsures sur le quatrième album de Casse-Pipe, Litanies de mon triste cœur, en 2000.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Sylvie_Rouch</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sylvie_Rouch</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Téléfilm</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Meurtres en Cotentin, réalisation Jérémy Minui, avec Chloé Lambert et Léa François. Diffusion : 1er février 2020, sur France 3. Rediffusion le 28 mai 2022, sur France 3.</t>
         </is>
       </c>
     </row>
